--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{604C0B1E-27EE-43F3-928F-B02A6CC74871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDB33A-E56C-46E9-B048-CE2E855A119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foregrips" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
   <si>
     <t>new</t>
   </si>
@@ -389,12 +402,30 @@
   </si>
   <si>
     <t>Magpul MLOK AFG</t>
+  </si>
+  <si>
+    <t>daniel_defense_rubber_overmolding_vertical_foregrip</t>
+  </si>
+  <si>
+    <t>Daniel Defense Soft Touch Rubber Overmolding Vertical Foregrip</t>
+  </si>
+  <si>
+    <t>irl price</t>
+  </si>
+  <si>
+    <t>price formula</t>
+  </si>
+  <si>
+    <t>irl weight</t>
+  </si>
+  <si>
+    <t>weight formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1251,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,12 +1295,12 @@
     <col min="2" max="2" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1312,8 +1343,20 @@
       <c r="N2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>107</v>
       </c>
@@ -1346,7 +1389,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>109</v>
       </c>
@@ -1375,11 +1418,11 @@
         <v>400</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N61" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
+        <f t="shared" ref="N4:N62" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
         <v>6.9999999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>111</v>
       </c>
@@ -1412,7 +1455,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>113</v>
       </c>
@@ -1445,7 +1488,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>115</v>
       </c>
@@ -1478,7 +1521,7 @@
         <v>6.3999999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>117</v>
       </c>
@@ -1511,7 +1554,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>119</v>
       </c>
@@ -1544,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1614,7 @@
         <v>6.7999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1641,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1625,7 +1668,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1652,7 +1695,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>121</v>
       </c>
@@ -1679,13 +1722,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -2246,7 +2289,7 @@
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
@@ -2279,7 +2322,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>63</v>
       </c>
@@ -2312,7 +2355,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>65</v>
       </c>
@@ -2345,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>67</v>
       </c>
@@ -2378,7 +2421,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>69</v>
       </c>
@@ -2411,7 +2454,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>70</v>
       </c>
@@ -2444,7 +2487,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>72</v>
       </c>
@@ -2477,7 +2520,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>74</v>
       </c>
@@ -2510,7 +2553,7 @@
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>82</v>
       </c>
@@ -2543,7 +2586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2570,7 +2613,7 @@
         <v>6.7999999999999989</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2597,7 +2640,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -2624,7 +2667,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2651,54 +2694,62 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="23">
+        <v>4</v>
+      </c>
+      <c r="D46" s="23">
+        <v>0.09</v>
+      </c>
+      <c r="E46" s="23">
+        <v>-3</v>
+      </c>
+      <c r="F46" s="23">
+        <v>-4</v>
+      </c>
+      <c r="M46" s="23">
+        <v>500</v>
+      </c>
       <c r="N46" s="23">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P46" s="23">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="23">
+        <f>P46*8+100</f>
+        <v>380</v>
+      </c>
+      <c r="R46" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="S46" s="23">
+        <f>R46*3*0.01+0.01</f>
+        <v>8.199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N47" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C48" s="11">
         <v>-1</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="E47" s="11">
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11">
-        <v>500</v>
-      </c>
-      <c r="N47" s="23">
-        <f t="shared" si="0"/>
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="11">
-        <v>-0.5</v>
       </c>
       <c r="D48" s="11">
         <v>0.03</v>
@@ -2716,25 +2767,25 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N48" s="23">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="11">
         <v>-0.5</v>
       </c>
       <c r="D49" s="11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E49" s="11">
         <v>0</v>
@@ -2753,60 +2804,60 @@
       </c>
       <c r="N49" s="23">
         <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11">
+        <v>200</v>
+      </c>
+      <c r="N50" s="23">
+        <f t="shared" si="0"/>
         <v>-0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="19">
-        <v>3</v>
-      </c>
-      <c r="D50" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="E50" s="19">
-        <v>-2</v>
-      </c>
-      <c r="F50" s="19">
-        <v>-7</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19">
-        <v>500</v>
-      </c>
-      <c r="N50" s="23">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C51" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="19">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E51" s="19">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F51" s="19">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
@@ -2815,31 +2866,31 @@
       <c r="K51" s="19"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N51" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C52" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D52" s="19">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E52" s="19">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F52" s="19">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -2848,31 +2899,31 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N52" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D53" s="19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E53" s="19">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F53" s="19">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -2881,28 +2932,28 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N53" s="23">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C54" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="19">
         <v>0.05</v>
       </c>
       <c r="E54" s="19">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F54" s="19">
         <v>-4</v>
@@ -2914,31 +2965,31 @@
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C55" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="19">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E55" s="19">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F55" s="19">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
@@ -2951,60 +3002,60 @@
       </c>
       <c r="N55" s="23">
         <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="19">
+        <v>5</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="E56" s="19">
+        <v>-2</v>
+      </c>
+      <c r="F56" s="19">
+        <v>-3</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19">
+        <v>500</v>
+      </c>
+      <c r="N56" s="23">
+        <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="20">
-        <v>3</v>
-      </c>
-      <c r="D56" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="E56" s="20">
-        <v>-2</v>
-      </c>
-      <c r="F56" s="20">
-        <v>-7</v>
-      </c>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20">
-        <v>500</v>
-      </c>
-      <c r="N56" s="23">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E57" s="20">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F57" s="20">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
@@ -3013,31 +3064,31 @@
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C58" s="20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D58" s="20">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E58" s="20">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F58" s="20">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
@@ -3046,31 +3097,31 @@
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C59" s="20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D59" s="20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E59" s="20">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F59" s="20">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -3079,28 +3130,28 @@
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N59" s="23">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C60" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" s="20">
         <v>0.05</v>
       </c>
       <c r="E60" s="20">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F60" s="20">
         <v>-4</v>
@@ -3112,31 +3163,31 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N60" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C61" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E61" s="20">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F61" s="20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -3149,6 +3200,39 @@
       </c>
       <c r="N61" s="23">
         <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="20">
+        <v>5</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="E62" s="20">
+        <v>-2</v>
+      </c>
+      <c r="F62" s="20">
+        <v>-3</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20">
+        <v>500</v>
+      </c>
+      <c r="N62" s="23">
+        <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
       </c>
     </row>

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBDB33A-E56C-46E9-B048-CE2E855A119F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD4F62-5640-4C1C-B5B7-3DAA85EBDD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
   <si>
     <t>new</t>
   </si>
@@ -420,6 +420,18 @@
   </si>
   <si>
     <t>weight formula</t>
+  </si>
+  <si>
+    <t>aug_a3_std_foregrip</t>
+  </si>
+  <si>
+    <t>AUG A3 Std.</t>
+  </si>
+  <si>
+    <t>aug_a3_std_foregrip_folded</t>
+  </si>
+  <si>
+    <t>AUG A3 Std. Folded</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1430,7 @@
         <v>400</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N62" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
+        <f t="shared" ref="N4:N65" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
         <v>6.9999999999999991</v>
       </c>
     </row>
@@ -3236,6 +3248,80 @@
         <v>7.6000000000000005</v>
       </c>
     </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="23">
+        <v>2</v>
+      </c>
+      <c r="D64" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="23">
+        <v>-5</v>
+      </c>
+      <c r="F64" s="23">
+        <v>-4</v>
+      </c>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23">
+        <v>0</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="23">
+        <v>7</v>
+      </c>
+      <c r="D65" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E65" s="23">
+        <v>3</v>
+      </c>
+      <c r="F65" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23">
+        <v>0</v>
+      </c>
+      <c r="N65" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD4F62-5640-4C1C-B5B7-3DAA85EBDD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D4BED-925F-46C7-8948-D6F47F0BC1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>new</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>AUG A3 Std. Folded</t>
+  </si>
+  <si>
+    <t>hera_arms_cqr_gen2_foregrip</t>
+  </si>
+  <si>
+    <t>Hera Arms CQR Gen2 Foregrip</t>
   </si>
 </sst>
 </file>
@@ -1295,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1436,7 @@
         <v>400</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N65" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
+        <f t="shared" ref="N4:N66" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
         <v>6.9999999999999991</v>
       </c>
     </row>
@@ -1775,22 +1781,22 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="18">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D17" s="18">
         <v>0.09</v>
       </c>
       <c r="E17" s="18">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F17" s="18">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -1802,28 +1808,28 @@
         <v>0</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999996</v>
+        <f>C17-D17*20-E17*0.8-F17*0.6</f>
+        <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="18">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="D18" s="18">
         <v>0.09</v>
       </c>
       <c r="E18" s="18">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F18" s="18">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -1836,7 +1842,7 @@
       </c>
       <c r="N18" s="23">
         <f t="shared" si="0"/>
-        <v>2.8000000000000007</v>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1880,16 +1886,16 @@
         <v>79</v>
       </c>
       <c r="C20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D20" s="17">
         <v>0.06</v>
       </c>
       <c r="E20" s="17">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F20" s="17">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -1902,7 +1908,7 @@
       </c>
       <c r="N20" s="23">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1913,7 +1919,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="17">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D21" s="17">
         <v>0.06</v>
@@ -1922,7 +1928,7 @@
         <v>-6</v>
       </c>
       <c r="F21" s="17">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -1935,7 +1941,7 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="0"/>
-        <v>3.6000000000000005</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1946,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D22" s="1">
         <v>0.23</v>
@@ -1968,291 +1974,282 @@
       </c>
       <c r="N22" s="23">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="23">
+        <v>-2</v>
+      </c>
+      <c r="D23" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="E23" s="23">
+        <v>-4</v>
+      </c>
+      <c r="F23" s="23">
+        <v>-9</v>
+      </c>
+      <c r="N23" s="23">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-7</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>900</v>
+      </c>
+      <c r="N24" s="23">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>-1.5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-3</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
+        <v>500</v>
+      </c>
+      <c r="N25" s="23">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <v>400</v>
+      </c>
+      <c r="N26" s="23">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-6</v>
+      </c>
+      <c r="F27" s="5">
+        <v>-3</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>700</v>
+      </c>
+      <c r="N27" s="23">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-4</v>
+      </c>
+      <c r="F28" s="6">
+        <v>-3</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6">
+        <v>600</v>
+      </c>
+      <c r="N28" s="23">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D29" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="E29" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-2</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7">
+        <v>300</v>
+      </c>
+      <c r="N29" s="23">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>-5</v>
+      </c>
+      <c r="F30" s="8">
         <v>-3</v>
       </c>
-      <c r="F23" s="2">
-        <v>-7</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2">
-        <v>900</v>
-      </c>
-      <c r="N23" s="23">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="7">
-        <v>4</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E24" s="7">
-        <v>-1.5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>-3</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7">
-        <v>500</v>
-      </c>
-      <c r="N24" s="23">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="E25" s="3">
-        <v>-4</v>
-      </c>
-      <c r="F25" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8">
         <v>400</v>
       </c>
-      <c r="N25" s="23">
-        <f t="shared" si="0"/>
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="E26" s="5">
-        <v>-6</v>
-      </c>
-      <c r="F26" s="5">
-        <v>-3</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5">
-        <v>700</v>
-      </c>
-      <c r="N26" s="23">
-        <f t="shared" si="0"/>
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="6">
-        <v>4</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0.09</v>
-      </c>
-      <c r="E27" s="6">
-        <v>-4</v>
-      </c>
-      <c r="F27" s="6">
-        <v>-3</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6">
-        <v>600</v>
-      </c>
-      <c r="N27" s="23">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="E28" s="7">
-        <v>-5</v>
-      </c>
-      <c r="F28" s="7">
-        <v>-2</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7">
-        <v>300</v>
-      </c>
-      <c r="N28" s="23">
-        <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="8">
-        <v>3</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E29" s="8">
-        <v>-5</v>
-      </c>
-      <c r="F29" s="8">
-        <v>-3</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8">
-        <v>400</v>
-      </c>
-      <c r="N29" s="23">
+      <c r="N30" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="E30" s="9">
-        <v>-3</v>
-      </c>
-      <c r="F30" s="9">
-        <v>-5</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9">
-        <v>800</v>
-      </c>
-      <c r="N30" s="23">
-        <f t="shared" si="0"/>
-        <v>6.2</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="9">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="E31" s="9">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F31" s="9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2261,163 +2258,163 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9">
+        <v>800</v>
+      </c>
+      <c r="N31" s="23">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="9">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="E32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="9">
+        <v>-3</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9">
         <v>600</v>
       </c>
-      <c r="N31" s="23">
+      <c r="N32" s="23">
         <f t="shared" si="0"/>
         <v>6.3999999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C33" s="10">
         <v>3</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D33" s="10">
         <v>0.09</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>-4</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>-4</v>
       </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10">
         <v>600</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N33" s="23">
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C34" s="12">
         <v>4</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E34" s="12">
         <v>-3</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F34" s="12">
         <v>-3</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12">
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12">
         <v>300</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N34" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C35" s="13">
         <v>2</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <v>0.1</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>-4</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>-6</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13">
         <v>400</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N35" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="14">
-        <v>3</v>
-      </c>
-      <c r="D35" s="14">
-        <v>0.08</v>
-      </c>
-      <c r="E35" s="14">
-        <v>-4</v>
-      </c>
-      <c r="F35" s="14">
-        <v>-4</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14">
-        <v>600</v>
-      </c>
-      <c r="N35" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="14">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E36" s="14">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F36" s="14">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -2426,31 +2423,31 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C37" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="14">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E37" s="14">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F37" s="14">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -2463,36 +2460,36 @@
       </c>
       <c r="N37" s="23">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="15">
-        <v>4</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="E38" s="15">
-        <v>-6</v>
-      </c>
-      <c r="F38" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15">
-        <v>500</v>
+      <c r="A38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="14">
+        <v>3</v>
+      </c>
+      <c r="D38" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="14">
+        <v>-3</v>
+      </c>
+      <c r="F38" s="14">
+        <v>-5</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14">
+        <v>700</v>
       </c>
       <c r="N38" s="23">
         <f t="shared" si="0"/>
@@ -2501,22 +2498,22 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C39" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E39" s="15">
+        <v>-6</v>
+      </c>
+      <c r="F39" s="15">
         <v>-1</v>
-      </c>
-      <c r="F39" s="15">
-        <v>-5</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -2525,148 +2522,154 @@
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15">
+        <v>500</v>
+      </c>
+      <c r="N39" s="23">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="15">
+        <v>5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="15">
+        <v>-5</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15">
         <v>300</v>
       </c>
-      <c r="N39" s="23">
+      <c r="N40" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C41" s="16">
         <v>5</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <v>0.09</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E41" s="16">
         <v>-2</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F41" s="16">
         <v>-4</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16">
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16">
         <v>800</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N41" s="23">
         <f t="shared" si="0"/>
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B42" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C42" s="17">
         <v>5</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D42" s="17">
         <v>0.06</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>-4</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>0</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17">
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17">
         <v>500</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N42" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E42">
-        <v>-1</v>
-      </c>
-      <c r="F42">
-        <v>-4</v>
-      </c>
-      <c r="M42">
-        <v>300</v>
-      </c>
-      <c r="N42" s="23">
-        <f t="shared" si="0"/>
-        <v>6.7999999999999989</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F43">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="M43">
         <v>300</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>6.7999999999999989</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F44">
         <v>-3</v>
@@ -2681,22 +2684,22 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>0.05</v>
       </c>
       <c r="E45">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M45">
         <v>300</v>
@@ -2706,95 +2709,89 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>0.05</v>
+      </c>
+      <c r="E46">
+        <v>-2</v>
+      </c>
+      <c r="F46">
+        <v>-2</v>
+      </c>
+      <c r="M46">
+        <v>300</v>
+      </c>
+      <c r="N46" s="23">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B47" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C47" s="23">
         <v>4</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D47" s="23">
         <v>0.09</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E47" s="23">
         <v>-3</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F47" s="23">
         <v>-4</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M47" s="23">
         <v>500</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N47" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P46" s="23">
+      <c r="P47" s="23">
         <v>35</v>
       </c>
-      <c r="Q46" s="23">
-        <f>P46*8+100</f>
+      <c r="Q47" s="23">
+        <f>P47*8+100</f>
         <v>380</v>
       </c>
-      <c r="R46" s="23">
+      <c r="R47" s="23">
         <v>2.4</v>
       </c>
-      <c r="S46" s="23">
-        <f>R46*3*0.01+0.01</f>
+      <c r="S47" s="23">
+        <f>R47*3*0.01+0.01</f>
         <v>8.199999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N47" s="23">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N48" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="11">
-        <v>-1</v>
-      </c>
-      <c r="D48" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="E48" s="11">
-        <v>0</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11">
-        <v>500</v>
-      </c>
-      <c r="N48" s="23">
-        <f t="shared" si="0"/>
-        <v>-1.6</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="D49" s="11">
         <v>0.03</v>
@@ -2812,25 +2809,25 @@
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N49" s="23">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="11">
         <v>-0.5</v>
       </c>
       <c r="D50" s="11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E50" s="11">
         <v>0</v>
@@ -2849,60 +2846,60 @@
       </c>
       <c r="N50" s="23">
         <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11">
+        <v>200</v>
+      </c>
+      <c r="N51" s="23">
+        <f t="shared" si="0"/>
         <v>-0.9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="19">
-        <v>3</v>
-      </c>
-      <c r="D51" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="E51" s="19">
-        <v>-2</v>
-      </c>
-      <c r="F51" s="19">
-        <v>-7</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19">
-        <v>500</v>
-      </c>
-      <c r="N51" s="23">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C52" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52" s="19">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E52" s="19">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F52" s="19">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
@@ -2911,31 +2908,31 @@
       <c r="K52" s="19"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N52" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C53" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D53" s="19">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E53" s="19">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F53" s="19">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -2944,31 +2941,31 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N53" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" s="19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D54" s="19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E54" s="19">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F54" s="19">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -2977,28 +2974,28 @@
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C55" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="19">
         <v>0.05</v>
       </c>
       <c r="E55" s="19">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F55" s="19">
         <v>-4</v>
@@ -3010,31 +3007,31 @@
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
       <c r="M55" s="19">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N55" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="19">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E56" s="19">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F56" s="19">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
@@ -3047,60 +3044,60 @@
       </c>
       <c r="N56" s="23">
         <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="19">
+        <v>5</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="E57" s="19">
+        <v>-2</v>
+      </c>
+      <c r="F57" s="19">
+        <v>-3</v>
+      </c>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19">
+        <v>500</v>
+      </c>
+      <c r="N57" s="23">
+        <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="20">
-        <v>3</v>
-      </c>
-      <c r="D57" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="E57" s="20">
-        <v>-2</v>
-      </c>
-      <c r="F57" s="20">
-        <v>-7</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20">
-        <v>500</v>
-      </c>
-      <c r="N57" s="23">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C58" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E58" s="20">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F58" s="20">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
@@ -3109,31 +3106,31 @@
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C59" s="20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D59" s="20">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E59" s="20">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F59" s="20">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -3142,31 +3139,31 @@
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N59" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C60" s="20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D60" s="20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E60" s="20">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F60" s="20">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -3175,28 +3172,28 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N60" s="23">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C61" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" s="20">
         <v>0.05</v>
       </c>
       <c r="E61" s="20">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F61" s="20">
         <v>-4</v>
@@ -3208,31 +3205,31 @@
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N61" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C62" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E62" s="20">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F62" s="20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -3245,71 +3242,69 @@
       </c>
       <c r="N62" s="23">
         <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="20">
+        <v>5</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="E63" s="20">
+        <v>-2</v>
+      </c>
+      <c r="F63" s="20">
+        <v>-3</v>
+      </c>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20">
+        <v>500</v>
+      </c>
+      <c r="N63" s="23">
+        <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N63" s="23">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="23">
-        <v>2</v>
-      </c>
-      <c r="D64" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="23">
-        <v>-5</v>
-      </c>
-      <c r="F64" s="23">
-        <v>-4</v>
-      </c>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23">
-        <v>0</v>
-      </c>
-      <c r="N64" s="23">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" s="23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D65" s="23">
         <v>0.1</v>
       </c>
       <c r="E65" s="23">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F65" s="23">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G65" s="23"/>
-      <c r="H65" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="H65" s="23"/>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
@@ -3319,6 +3314,41 @@
       </c>
       <c r="N65" s="23">
         <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="23">
+        <v>7</v>
+      </c>
+      <c r="D66" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="23">
+        <v>3</v>
+      </c>
+      <c r="F66" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23">
+        <v>0</v>
+      </c>
+      <c r="N66" s="23">
+        <f t="shared" si="0"/>
         <v>3.1999999999999997</v>
       </c>
     </row>

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0D4BED-925F-46C7-8948-D6F47F0BC1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8DF2DD-6F67-4B52-A65F-6507208985E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
   <si>
     <t>new</t>
   </si>
@@ -438,6 +438,12 @@
   </si>
   <si>
     <t>Hera Arms CQR Gen2 Foregrip</t>
+  </si>
+  <si>
+    <t>airtronic_psrl_plastic_foregrip</t>
+  </si>
+  <si>
+    <t>AirTronic USA PSRL Plastic Foregrip</t>
   </si>
 </sst>
 </file>
@@ -1301,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1442,7 @@
         <v>400</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N66" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
+        <f t="shared" ref="N4:N68" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
         <v>6.9999999999999991</v>
       </c>
     </row>
@@ -2240,16 +2246,16 @@
         <v>50</v>
       </c>
       <c r="C31" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="9">
         <v>0.11</v>
       </c>
       <c r="E31" s="9">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F31" s="9">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2262,7 +2268,7 @@
       </c>
       <c r="N31" s="23">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>5.1999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2273,16 +2279,16 @@
         <v>52</v>
       </c>
       <c r="C32" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="9">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E32" s="9">
         <v>-1</v>
       </c>
       <c r="F32" s="9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
@@ -2295,7 +2301,7 @@
       </c>
       <c r="N32" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>5.7999999999999989</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3352,6 +3358,39 @@
         <v>3.1999999999999997</v>
       </c>
     </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>0.1</v>
+      </c>
+      <c r="E68">
+        <v>-2</v>
+      </c>
+      <c r="F68">
+        <v>-2</v>
+      </c>
+      <c r="M68">
+        <v>800</v>
+      </c>
+      <c r="N68" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8DF2DD-6F67-4B52-A65F-6507208985E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46A04E-AE64-4D41-BFAB-E1C3510DBB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,16 +1487,16 @@
         <v>114</v>
       </c>
       <c r="C6" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="23">
         <v>0.11</v>
       </c>
       <c r="E6" s="23">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F6" s="23">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="N6" s="23">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>5.1999999999999993</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1520,16 +1520,16 @@
         <v>116</v>
       </c>
       <c r="C7" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="23">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E7" s="23">
         <v>-1</v>
       </c>
       <c r="F7" s="23">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="N7" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>5.7999999999999989</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -1625,17 +1625,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F10">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M10">
         <v>300</v>
       </c>
       <c r="N10" s="23">
         <f t="shared" si="0"/>
-        <v>6.7999999999999989</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>7.0000000000000007E-2</v>
@@ -1655,14 +1655,14 @@
         <v>-3</v>
       </c>
       <c r="F11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M11">
         <v>300</v>
       </c>
       <c r="N11" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1679,17 +1679,17 @@
         <v>0.05</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M12">
         <v>300</v>
       </c>
       <c r="N12" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1700,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>0.05</v>
@@ -1709,14 +1709,14 @@
         <v>-2</v>
       </c>
       <c r="F13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="M13">
         <v>300</v>
       </c>
       <c r="N13" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1793,16 +1793,16 @@
         <v>87</v>
       </c>
       <c r="C17" s="18">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="18">
         <v>0.09</v>
       </c>
       <c r="E17" s="18">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F17" s="18">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="N17" s="23">
         <f>C17-D17*20-E17*0.8-F17*0.6</f>
-        <v>2.8000000000000007</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1826,16 +1826,16 @@
         <v>85</v>
       </c>
       <c r="C18" s="18">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="D18" s="18">
         <v>0.09</v>
       </c>
       <c r="E18" s="18">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F18" s="18">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="N18" s="23">
         <f t="shared" si="0"/>
-        <v>2.5999999999999996</v>
+        <v>4.2000000000000011</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>0.06</v>
       </c>
       <c r="E20" s="17">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F20" s="17">
         <v>-4</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="N20" s="23">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1925,13 +1925,13 @@
         <v>81</v>
       </c>
       <c r="C21" s="17">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="D21" s="17">
         <v>0.06</v>
       </c>
       <c r="E21" s="17">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F21" s="17">
         <v>-6</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>3.3999999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1958,16 +1958,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="1">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="1">
         <v>0.23</v>
       </c>
       <c r="E22" s="1">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="1">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="N22" s="23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.9999999999999991</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -1991,20 +1991,20 @@
         <v>134</v>
       </c>
       <c r="C23" s="23">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D23" s="23">
         <v>0.23</v>
       </c>
       <c r="E23" s="23">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F23" s="23">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="0"/>
-        <v>1.9999999999999991</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2015,13 +2015,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
         <v>0.16</v>
       </c>
       <c r="E24" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="2">
         <v>-7</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="N24" s="23">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2048,16 +2048,16 @@
         <v>46</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E25" s="7">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="F25" s="7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="N25" s="23">
         <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2180,16 +2180,16 @@
         <v>44</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
         <v>0.08</v>
       </c>
       <c r="E29" s="7">
+        <v>-2</v>
+      </c>
+      <c r="F29" s="7">
         <v>-5</v>
-      </c>
-      <c r="F29" s="7">
-        <v>-2</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="N29" s="23">
         <f t="shared" si="0"/>
-        <v>6.6000000000000005</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2318,10 +2318,10 @@
         <v>0.09</v>
       </c>
       <c r="E33" s="10">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F33" s="10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="N33" s="23">
         <f t="shared" si="0"/>
-        <v>6.8000000000000007</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -2384,10 +2384,10 @@
         <v>0.1</v>
       </c>
       <c r="E35" s="13">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F35" s="13">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="N35" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2443,17 +2443,17 @@
       <c r="B37" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="14">
-        <v>5</v>
-      </c>
-      <c r="D37" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="E37" s="14">
-        <v>-2</v>
-      </c>
-      <c r="F37" s="14">
-        <v>-2</v>
+      <c r="C37" s="23">
+        <v>3</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="23">
+        <v>-3</v>
+      </c>
+      <c r="F37" s="23">
+        <v>-5</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="N37" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -2476,22 +2476,22 @@
       <c r="B38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="14">
-        <v>3</v>
-      </c>
-      <c r="D38" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E38" s="14">
-        <v>-3</v>
-      </c>
-      <c r="F38" s="14">
-        <v>-5</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="C38" s="23">
+        <v>6</v>
+      </c>
+      <c r="D38" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E38" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="N38" s="23">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -2648,17 +2648,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E43">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F43">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="M43">
         <v>300</v>
       </c>
       <c r="N43" s="23">
         <f t="shared" si="0"/>
-        <v>6.7999999999999989</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -2668,24 +2668,24 @@
       <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="23">
+        <v>5</v>
+      </c>
+      <c r="D44" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="23">
         <v>-3</v>
       </c>
-      <c r="F44">
-        <v>-3</v>
+      <c r="F44" s="23">
+        <v>-2</v>
       </c>
       <c r="M44">
         <v>300</v>
       </c>
       <c r="N44" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -2702,17 +2702,17 @@
         <v>0.05</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F45">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M45">
         <v>300</v>
       </c>
       <c r="N45" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -2722,24 +2722,24 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
-      <c r="C46">
-        <v>5</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="23">
+        <v>6</v>
+      </c>
+      <c r="D46" s="23">
         <v>0.05</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="23">
         <v>-2</v>
       </c>
-      <c r="F46">
-        <v>-2</v>
+      <c r="F46" s="23">
+        <v>-1</v>
       </c>
       <c r="M46">
         <v>300</v>
       </c>
       <c r="N46" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D46A04E-AE64-4D41-BFAB-E1C3510DBB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582ABD3-F472-4302-BC5F-63615FFCC7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,17 +1733,17 @@
         <v>0.05</v>
       </c>
       <c r="E14" s="23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F14" s="23">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="M14" s="23">
         <v>500</v>
       </c>
       <c r="N14" s="23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582ABD3-F472-4302-BC5F-63615FFCC7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD1B1A6-0B4B-4556-AD9A-8ABA876DFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="139">
   <si>
     <t>new</t>
   </si>
@@ -444,6 +444,12 @@
   </si>
   <si>
     <t>AirTronic USA PSRL Plastic Foregrip</t>
+  </si>
+  <si>
+    <t>arisaka_mlok_fingerstop</t>
+  </si>
+  <si>
+    <t>Arisaka MLOK Fingerstop</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1442,7 +1448,7 @@
         <v>400</v>
       </c>
       <c r="N4" s="23">
-        <f t="shared" ref="N4:N68" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
+        <f t="shared" ref="N4:N69" si="0">C4-D4*20-E4*0.8-F4*0.6</f>
         <v>6.9999999999999991</v>
       </c>
     </row>
@@ -1746,96 +1752,90 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="23">
+        <v>6</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="23">
+        <v>500</v>
+      </c>
       <c r="N15" s="23">
         <f t="shared" si="0"/>
+        <v>6.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N16" s="23">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>0.15</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
         <v>1100</v>
       </c>
-      <c r="N16" s="23">
+      <c r="N17" s="23">
         <f t="shared" si="0"/>
         <v>-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="18">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>0.09</v>
-      </c>
-      <c r="E17" s="18">
-        <v>-4</v>
-      </c>
-      <c r="F17" s="18">
-        <v>-5</v>
-      </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18">
-        <v>0</v>
-      </c>
-      <c r="N17" s="23">
-        <f>C17-D17*20-E17*0.8-F17*0.6</f>
-        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="18">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="18">
         <v>0.09</v>
       </c>
       <c r="E18" s="18">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F18" s="18">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -1847,61 +1847,61 @@
         <v>0</v>
       </c>
       <c r="N18" s="23">
+        <f>C18-D18*20-E18*0.8-F18*0.6</f>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-3</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="E19" s="18">
+        <v>-6</v>
+      </c>
+      <c r="F19" s="18">
+        <v>-7</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="23">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17">
-        <v>700</v>
-      </c>
-      <c r="N19" s="23">
-        <f t="shared" si="0"/>
-        <v>-2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="17">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E20" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -1910,31 +1910,31 @@
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
       <c r="M20" s="17">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="17">
         <v>0.06</v>
       </c>
       <c r="E21" s="17">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F21" s="17">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -1947,345 +1947,345 @@
       </c>
       <c r="N21" s="23">
         <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="17">
+        <v>-3</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="E22" s="17">
+        <v>-5</v>
+      </c>
+      <c r="F22" s="17">
+        <v>-6</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="23">
+        <f t="shared" si="0"/>
         <v>3.3999999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0.23</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>-1</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>-3</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
         <v>1000</v>
       </c>
-      <c r="N22" s="23">
+      <c r="N23" s="23">
         <f t="shared" si="0"/>
         <v>3.9999999999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="24" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B24" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C24" s="23">
         <v>6</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D24" s="23">
         <v>0.23</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E24" s="23">
         <v>-3</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F24" s="23">
         <v>0</v>
       </c>
-      <c r="N23" s="23">
+      <c r="N24" s="23">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D25" s="2">
         <v>0.16</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>-1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="2">
         <v>-7</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
         <v>900</v>
       </c>
-      <c r="N24" s="23">
+      <c r="N25" s="23">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>0.09</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>-2</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>-2</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7">
         <v>500</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N26" s="23">
         <f t="shared" si="0"/>
         <v>7.0000000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>0.11</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>-4</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <v>-1</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="23">
+      <c r="N27" s="23">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C28" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D28" s="5">
         <v>0.09</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E28" s="5">
         <v>-6</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>-3</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5">
         <v>700</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N28" s="23">
         <f t="shared" si="0"/>
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D29" s="6">
         <v>0.09</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E29" s="6">
         <v>-4</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F29" s="6">
         <v>-3</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6">
         <v>600</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N29" s="23">
         <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>0.08</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>-2</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>-5</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7">
         <v>300</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N30" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>3</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>0.1</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>-5</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F31" s="8">
         <v>-3</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
         <v>400</v>
       </c>
-      <c r="N30" s="23">
+      <c r="N31" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="9">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.11</v>
-      </c>
-      <c r="E31" s="9">
-        <v>-5</v>
-      </c>
-      <c r="F31" s="9">
-        <v>-4</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9">
-        <v>800</v>
-      </c>
-      <c r="N31" s="23">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="E32" s="9">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="F32" s="9">
         <v>-4</v>
@@ -2297,139 +2297,139 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9">
+        <v>800</v>
+      </c>
+      <c r="N32" s="23">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E33" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="9">
+        <v>-4</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9">
         <v>600</v>
       </c>
-      <c r="N32" s="23">
+      <c r="N33" s="23">
         <f t="shared" si="0"/>
         <v>5.7999999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>3</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D34" s="10">
         <v>0.09</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E34" s="10">
         <v>-5</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F34" s="10">
         <v>-3</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10">
         <v>600</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N34" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B35" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C35" s="12">
         <v>4</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E35" s="12">
         <v>-3</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F35" s="12">
         <v>-3</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12">
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12">
         <v>300</v>
       </c>
-      <c r="N34" s="23">
+      <c r="N35" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C36" s="13">
         <v>2</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="13">
         <v>0.1</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>-5</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>-5</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13">
         <v>400</v>
-      </c>
-      <c r="N35" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="14">
-        <v>3</v>
-      </c>
-      <c r="D36" s="14">
-        <v>0.08</v>
-      </c>
-      <c r="E36" s="14">
-        <v>-4</v>
-      </c>
-      <c r="F36" s="14">
-        <v>-4</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14">
-        <v>600</v>
       </c>
       <c r="N36" s="23">
         <f t="shared" si="0"/>
@@ -2438,22 +2438,22 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="23">
+        <v>66</v>
+      </c>
+      <c r="C37" s="14">
         <v>3</v>
       </c>
-      <c r="D37" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="E37" s="23">
-        <v>-3</v>
-      </c>
-      <c r="F37" s="23">
-        <v>-5</v>
+      <c r="D37" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="14">
+        <v>-4</v>
+      </c>
+      <c r="F37" s="14">
+        <v>-4</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -2462,36 +2462,36 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N37" s="23">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" s="23">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E38" s="23">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F38" s="23">
-        <v>-2</v>
-      </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+        <v>-5</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14">
@@ -2499,60 +2499,60 @@
       </c>
       <c r="N38" s="23">
         <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="23">
+        <v>6</v>
+      </c>
+      <c r="D39" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E39" s="23">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="23">
+        <v>-2</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14">
+        <v>700</v>
+      </c>
+      <c r="N39" s="23">
+        <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="15">
-        <v>4</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0.15</v>
-      </c>
-      <c r="E39" s="15">
-        <v>-6</v>
-      </c>
-      <c r="F39" s="15">
-        <v>-1</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15">
-        <v>500</v>
-      </c>
-      <c r="N39" s="23">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="15">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E40" s="15">
+        <v>-6</v>
+      </c>
+      <c r="F40" s="15">
         <v>-1</v>
-      </c>
-      <c r="F40" s="15">
-        <v>-5</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -2561,123 +2561,129 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15">
+        <v>500</v>
+      </c>
+      <c r="N40" s="23">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="15">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-5</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15">
         <v>300</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N41" s="23">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C42" s="16">
         <v>5</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <v>0.09</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E42" s="16">
         <v>-2</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F42" s="16">
         <v>-4</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16">
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16">
         <v>800</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N42" s="23">
         <f t="shared" si="0"/>
         <v>7.2000000000000011</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B43" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C43" s="17">
         <v>5</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="17">
         <v>0.06</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>-4</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>0</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17">
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17">
         <v>500</v>
       </c>
-      <c r="N42" s="23">
+      <c r="N43" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E43">
-        <v>-3</v>
-      </c>
-      <c r="F43">
-        <v>-2</v>
-      </c>
-      <c r="M43">
-        <v>300</v>
-      </c>
-      <c r="N43" s="23">
-        <f t="shared" si="0"/>
-        <v>7.2</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="23">
+        <v>24</v>
+      </c>
+      <c r="C44">
         <v>5</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44">
         <v>-3</v>
       </c>
-      <c r="F44" s="23">
+      <c r="F44">
         <v>-2</v>
       </c>
       <c r="M44">
@@ -2690,48 +2696,48 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45">
-        <v>0.05</v>
-      </c>
-      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="C45" s="23">
+        <v>5</v>
+      </c>
+      <c r="D45" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E45" s="23">
+        <v>-3</v>
+      </c>
+      <c r="F45" s="23">
         <v>-2</v>
-      </c>
-      <c r="F45">
-        <v>-1</v>
       </c>
       <c r="M45">
         <v>300</v>
       </c>
       <c r="N45" s="23">
         <f t="shared" si="0"/>
-        <v>7.1999999999999993</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="23">
+        <v>28</v>
+      </c>
+      <c r="C46">
         <v>6</v>
       </c>
-      <c r="D46" s="23">
+      <c r="D46">
         <v>0.05</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46">
         <v>-2</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46">
         <v>-1</v>
       </c>
       <c r="M46">
@@ -2742,95 +2748,89 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="23">
+        <v>6</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="E47" s="23">
+        <v>-2</v>
+      </c>
+      <c r="F47" s="23">
+        <v>-1</v>
+      </c>
+      <c r="M47">
+        <v>300</v>
+      </c>
+      <c r="N47" s="23">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B48" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C48" s="23">
         <v>4</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D48" s="23">
         <v>0.09</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E48" s="23">
         <v>-3</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F48" s="23">
         <v>-4</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M48" s="23">
         <v>500</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N48" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="P47" s="23">
+      <c r="P48" s="23">
         <v>35</v>
       </c>
-      <c r="Q47" s="23">
-        <f>P47*8+100</f>
+      <c r="Q48" s="23">
+        <f>P48*8+100</f>
         <v>380</v>
       </c>
-      <c r="R47" s="23">
+      <c r="R48" s="23">
         <v>2.4</v>
       </c>
-      <c r="S47" s="23">
-        <f>R47*3*0.01+0.01</f>
+      <c r="S48" s="23">
+        <f>R48*3*0.01+0.01</f>
         <v>8.199999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N48" s="23">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="11">
-        <v>-1</v>
-      </c>
-      <c r="D49" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11">
-        <v>500</v>
-      </c>
-      <c r="N49" s="23">
-        <f t="shared" si="0"/>
-        <v>-1.6</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="D50" s="11">
         <v>0.03</v>
@@ -2848,25 +2848,25 @@
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N50" s="23">
         <f t="shared" si="0"/>
-        <v>-1.1000000000000001</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="11">
         <v>-0.5</v>
       </c>
       <c r="D51" s="11">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E51" s="11">
         <v>0</v>
@@ -2885,60 +2885,60 @@
       </c>
       <c r="N51" s="23">
         <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="11">
+        <v>-0.5</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
+      </c>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11">
+        <v>200</v>
+      </c>
+      <c r="N52" s="23">
+        <f t="shared" si="0"/>
         <v>-0.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="19">
-        <v>3</v>
-      </c>
-      <c r="D52" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="E52" s="19">
-        <v>-2</v>
-      </c>
-      <c r="F52" s="19">
-        <v>-7</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19">
-        <v>500</v>
-      </c>
-      <c r="N52" s="23">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53" s="19">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E53" s="19">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F53" s="19">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
@@ -2947,31 +2947,31 @@
       <c r="K53" s="19"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N53" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C54" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D54" s="19">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E54" s="19">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F54" s="19">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
@@ -2980,31 +2980,31 @@
       <c r="K54" s="19"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C55" s="19">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D55" s="19">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E55" s="19">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F55" s="19">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
@@ -3013,28 +3013,28 @@
       <c r="K55" s="19"/>
       <c r="L55" s="19"/>
       <c r="M55" s="19">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N55" s="23">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C56" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="19">
         <v>0.05</v>
       </c>
       <c r="E56" s="19">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F56" s="19">
         <v>-4</v>
@@ -3046,31 +3046,31 @@
       <c r="K56" s="19"/>
       <c r="L56" s="19"/>
       <c r="M56" s="19">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N56" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C57" s="19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="19">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E57" s="19">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F57" s="19">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
@@ -3083,60 +3083,60 @@
       </c>
       <c r="N57" s="23">
         <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="19">
+        <v>5</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="E58" s="19">
+        <v>-2</v>
+      </c>
+      <c r="F58" s="19">
+        <v>-3</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19">
+        <v>500</v>
+      </c>
+      <c r="N58" s="23">
+        <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="20">
-        <v>3</v>
-      </c>
-      <c r="D58" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="E58" s="20">
-        <v>-2</v>
-      </c>
-      <c r="F58" s="20">
-        <v>-7</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20">
-        <v>500</v>
-      </c>
-      <c r="N58" s="23">
-        <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C59" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E59" s="20">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F59" s="20">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
@@ -3145,31 +3145,31 @@
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N59" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C60" s="20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D60" s="20">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E60" s="20">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F60" s="20">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -3178,31 +3178,31 @@
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N60" s="23">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C61" s="20">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D61" s="20">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="E61" s="20">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="F61" s="20">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -3211,28 +3211,28 @@
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="N61" s="23">
         <f t="shared" si="0"/>
-        <v>7.8000000000000007</v>
+        <v>6.3999999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C62" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="20">
         <v>0.05</v>
       </c>
       <c r="E62" s="20">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F62" s="20">
         <v>-4</v>
@@ -3244,31 +3244,31 @@
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N62" s="23">
         <f t="shared" si="0"/>
-        <v>7.6</v>
+        <v>7.8000000000000007</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C63" s="20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" s="20">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E63" s="20">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F63" s="20">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -3281,71 +3281,69 @@
       </c>
       <c r="N63" s="23">
         <f t="shared" si="0"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="20">
+        <v>5</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="E64" s="20">
+        <v>-2</v>
+      </c>
+      <c r="F64" s="20">
+        <v>-3</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20">
+        <v>500</v>
+      </c>
+      <c r="N64" s="23">
+        <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N64" s="23">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="23">
-        <v>2</v>
-      </c>
-      <c r="D65" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="E65" s="23">
-        <v>-5</v>
-      </c>
-      <c r="F65" s="23">
-        <v>-4</v>
-      </c>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23">
-        <v>0</v>
-      </c>
-      <c r="N65" s="23">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D66" s="23">
         <v>0.1</v>
       </c>
       <c r="E66" s="23">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="F66" s="23">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="G66" s="23"/>
-      <c r="H66" s="23">
-        <v>0.3</v>
-      </c>
+      <c r="H66" s="23"/>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
@@ -3355,38 +3353,73 @@
       </c>
       <c r="N66" s="23">
         <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="23">
+        <v>7</v>
+      </c>
+      <c r="D67" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E67" s="23">
+        <v>3</v>
+      </c>
+      <c r="F67" s="23">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23">
+        <v>0</v>
+      </c>
+      <c r="N67" s="23">
+        <f t="shared" si="0"/>
         <v>3.1999999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N67" s="23">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>135</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>136</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>3</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>0.1</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>-2</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>-2</v>
       </c>
-      <c r="M68">
+      <c r="M69">
         <v>800</v>
       </c>
-      <c r="N68" s="23">
+      <c r="N69" s="23">
         <f t="shared" si="0"/>
         <v>3.8</v>
       </c>

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD1B1A6-0B4B-4556-AD9A-8ABA876DFA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821767F-0FA4-4F9A-9938-77912CF25224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foregrips" sheetId="1" r:id="rId1"/>
@@ -164,12 +164,6 @@
     <t>Magpul AFG-2</t>
   </si>
   <si>
-    <t>magpul_rvg</t>
-  </si>
-  <si>
-    <t>Magpul RVG</t>
-  </si>
-  <si>
     <t>xtm_full_handstop</t>
   </si>
   <si>
@@ -368,12 +362,6 @@
     <t>DD Enhanced MVG</t>
   </si>
   <si>
-    <t>magpul_mvg</t>
-  </si>
-  <si>
-    <t>Magpul MVG</t>
-  </si>
-  <si>
     <t>okb_crazy_romanian_mlok_full_grip</t>
   </si>
   <si>
@@ -450,6 +438,18 @@
   </si>
   <si>
     <t>Arisaka MLOK Fingerstop</t>
+  </si>
+  <si>
+    <t>Magpul MVG MAG597 Foregrip</t>
+  </si>
+  <si>
+    <t>magpul_rvg_mag412_foregrip</t>
+  </si>
+  <si>
+    <t>Magpul RVG MAG412 Foregrip</t>
+  </si>
+  <si>
+    <t>magpul_mvg_mag597_foregrip</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,24 +1374,24 @@
         <v>14</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="21">
         <v>6</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="4" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="22">
         <v>4</v>
@@ -1454,10 +1454,10 @@
     </row>
     <row r="5" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C5" s="23">
         <v>4</v>
@@ -1487,10 +1487,10 @@
     </row>
     <row r="6" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="7" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" s="23">
         <v>4</v>
@@ -1553,10 +1553,10 @@
     </row>
     <row r="8" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" s="23">
         <v>5</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C9" s="23">
         <v>6</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="14" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="23">
         <v>4</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="15" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C15" s="23">
         <v>6</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" s="18">
         <v>-1</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19" s="18">
         <v>-3</v>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="17">
         <v>0</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="17">
         <v>-1</v>
@@ -1952,10 +1952,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="17">
         <v>-3</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="24" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="23">
         <v>6</v>
@@ -2034,6 +2034,9 @@
       </c>
       <c r="F24" s="23">
         <v>0</v>
+      </c>
+      <c r="M24" s="23">
+        <v>1500</v>
       </c>
       <c r="N24" s="23">
         <f t="shared" si="0"/>
@@ -2075,10 +2078,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -2207,10 +2210,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -2240,10 +2243,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C31" s="8">
         <v>3</v>
@@ -2273,10 +2276,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="9">
         <v>1</v>
@@ -2306,10 +2309,10 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="9">
         <v>4</v>
@@ -2339,10 +2342,10 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -2372,10 +2375,10 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="12">
         <v>4</v>
@@ -2405,10 +2408,10 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="13">
         <v>2</v>
@@ -2438,10 +2441,10 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C37" s="14">
         <v>3</v>
@@ -2471,10 +2474,10 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="23">
         <v>3</v>
@@ -2504,10 +2507,10 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C39" s="23">
         <v>6</v>
@@ -2537,10 +2540,10 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="15">
         <v>4</v>
@@ -2570,10 +2573,10 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C41" s="15">
         <v>5</v>
@@ -2603,10 +2606,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="16">
         <v>5</v>
@@ -2636,10 +2639,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="17">
         <v>5</v>
@@ -2777,10 +2780,10 @@
     </row>
     <row r="48" spans="1:19" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C48" s="23">
         <v>4</v>
@@ -2824,10 +2827,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11">
         <v>-1</v>
@@ -2857,10 +2860,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="11">
         <v>-0.5</v>
@@ -2890,10 +2893,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11">
         <v>-0.5</v>
@@ -2923,10 +2926,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C53" s="19">
         <v>3</v>
@@ -2956,10 +2959,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C54" s="19">
         <v>1</v>
@@ -2989,10 +2992,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" s="19">
         <v>-1</v>
@@ -3022,10 +3025,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" s="19">
         <v>4</v>
@@ -3055,10 +3058,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C57" s="19">
         <v>3</v>
@@ -3088,10 +3091,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C58" s="19">
         <v>5</v>
@@ -3121,10 +3124,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="20">
         <v>3</v>
@@ -3154,10 +3157,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="20">
         <v>1</v>
@@ -3187,10 +3190,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="20">
         <v>-1</v>
@@ -3220,10 +3223,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C62" s="20">
         <v>4</v>
@@ -3253,10 +3256,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C63" s="20">
         <v>3</v>
@@ -3286,10 +3289,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C64" s="20">
         <v>5</v>
@@ -3325,10 +3328,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C66" s="23">
         <v>2</v>
@@ -3358,10 +3361,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C67" s="23">
         <v>7</v>
@@ -3399,10 +3402,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C69">
         <v>3</v>

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C821767F-0FA4-4F9A-9938-77912CF25224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E114C76-E32F-403F-BCC2-12977CD166B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,10 +2255,10 @@
         <v>0.1</v>
       </c>
       <c r="E31" s="8">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F31" s="8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="N31" s="23">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>7.0000000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/foregrips.xlsx
+++ b/changes/foregrips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E114C76-E32F-403F-BCC2-12977CD166B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B023C743-3C68-4849-BFD6-D451CA2E3A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1316,7 +1316,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,13 +1559,13 @@
         <v>114</v>
       </c>
       <c r="C8" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E8" s="23">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F8" s="23">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="N8" s="23">
         <f t="shared" si="0"/>
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.25">
